--- a/biology/Zoologie/Zdeněk_Burian/Zdeněk_Burian.xlsx
+++ b/biology/Zoologie/Zdeněk_Burian/Zdeněk_Burian.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Zden%C4%9Bk_Burian</t>
+          <t>Zdeněk_Burian</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Zdeněk Burian (né le 11 février 1905 à Kopřivnice, dans le Margraviat de Moravie en Autriche-Hongrie (aujourd'hui en République tchèque), mort le 1er juillet 1981 à Prague) est un peintre et illustrateur tchèque principalement connu pour ses reconstitutions des faunes préhistoriques, durant une carrière qui s'étendit sur cinq décennies. À l'origine seulement reconnu en Tchécoslovaquie, la dernière partie de sa carrière lui fit connaître une audience internationale, et nombre d'artistes ont tenté d'imiter son style. Il est considéré comme l'un des plus influents paléo-artistes en reconstitution préhistorique.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Zden%C4%9Bk_Burian</t>
+          <t>Zdeněk_Burian</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Zdeněk Burian, fils de l'architecte Eduard Burian et de son épouse Hermina, naît le 11 février 1905 à Kopřivnice, en Moravie, dans une région connue pour ses vestiges paléontologiques - notamment ceux de la colline Kotouč et de la grotte Šipka. Son enfance dans cette région fut certainement à l'origine de sa passion pour la Préhistoire. Il se met à dessiner dès l'enfance, encouragé par sa mère et contre l'avis de son père, qui le destine à être garde forestier.
 Zdeněk Burian entre à l'âge de quatorze ans, en 1919, à l'Académie des Beaux Arts de Prague. Entouré d'élèves bien plus âgés que lui, certains ayant été au front lors de la Guerre 1914-1918, il ne trouve pas sa place à l'Académie, dont il est exclu lors de la seconde année pour absentéisme. Burian restera sa vie durant un artiste solitaire et autodidacte. 
@@ -521,7 +535,7 @@
 Burian collabore ensuite avec six scientifiques tchèques, produisant des tableaux saisissants sur toutes les époques préhistoriques. En 1949, le Ministère de l'éducation national tchèque lui demande une série d’illustrations pédagogiques, dont la première, un campement d'hommes de Cro-Magnon, est resté jusqu'à aujourd'hui un classique partout dans le monde.
 Dans le milieu des années 1970, Burian reçoit commande d'une trentaine de grands tableaux pour le zoo de Dvůr Králové, en Bohème - qui souhaite ainsi présenter un "zoo préhistorique". Burian ne réalisera que 22 tableaux : il meurt le 1er juillet 1981, à 76 ans.
 L'œuvre de Burian comprend 9 850 illustrations répertoriées (sur un total estimé entre 12 et 14 000). Reprises, copiées, parfois plagiées, les œuvres de Burian ont largement contribué à amener un large public à mieux comprendre et visualiser la Préhistoire - du  Paléozoïque à l'Holocène. Ses illustrations ont rendu présents les dinosaures du Jurassique et du Crétacé comme les modes de vie des hommes préhistoriques. Dans les années 1960-70, pratiquement tous les muséums d'histoire naturelle présentaient des originaux ou des copies des toiles de Burian. 
-Zdeněk Burian est aujourd'hui le deuxième peintre tchèque le plus reproduit au monde après Alfons Mucha[1].
+Zdeněk Burian est aujourd'hui le deuxième peintre tchèque le plus reproduit au monde après Alfons Mucha.
 </t>
         </is>
       </c>
@@ -532,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Zden%C4%9Bk_Burian</t>
+          <t>Zdeněk_Burian</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,7 +564,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Burian fut un artiste très prolifique dont la production est estimée aux alentours de 12 000 à 14 000 peintures et dessins (au crayon ou à l'encre). Il illustra plus de 500 livres (dont des ouvrages de sciences naturelles et nombre de classiques de la littérature comme Robinson Crusoé, Tarzan, Plutonia) et quelque 600 couvertures de livres et magazines. Mais c'est dans le domaine de la paléontologie et de la paléoanthropologie que l'influence de Burian fut la plus notable. Depuis la fin des années 1950 et le début des années 1960, quand l'œuvre de Burian commença à être découverte dans les pays de l'ouest à travers une série de livres grand format édités par la maison d'édition Artia, plusieurs ouvrages de vulgarisation scientifique reproduisirent ses peintures, ou s'en inspirèrent largement.
 On citera notamment, dans le cadre de sa collaboration avec Joseph Augusta, trois livres phares : 
@@ -567,7 +583,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Zden%C4%9Bk_Burian</t>
+          <t>Zdeněk_Burian</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -585,10 +601,12 @@
           <t>Musée et expositions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un musée consacré à Burian, le Muzeum Zdeňka Buriana, a été ouvert en République tchèque dans la ville de Štramberk, en 1992[2].
-En France, une exposition Zdenek Burian, peintre de la Préhistoire a été consacrée au peintre au Musée du château des ducs de Wurtemberg en 2007-2008 ; elle a réuni 76 tableaux de Burian[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un musée consacré à Burian, le Muzeum Zdeňka Buriana, a été ouvert en République tchèque dans la ville de Štramberk, en 1992.
+En France, une exposition Zdenek Burian, peintre de la Préhistoire a été consacrée au peintre au Musée du château des ducs de Wurtemberg en 2007-2008 ; elle a réuni 76 tableaux de Burian.
 </t>
         </is>
       </c>
